--- a/p1/projeto1.xlsx
+++ b/p1/projeto1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="173">
   <si>
     <t>co2_2007</t>
   </si>
@@ -23,6 +23,12 @@
   </si>
   <si>
     <t>idh_2007</t>
+  </si>
+  <si>
+    <t>co2_2007_log</t>
+  </si>
+  <si>
+    <t>ener_2007_log</t>
   </si>
   <si>
     <t>geo</t>
@@ -884,15 +890,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D168"/>
+  <dimension ref="A1:F168"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -903,10 +909,16 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2">
         <v>1.3</v>
@@ -917,10 +929,16 @@
       <c r="D2">
         <v>0.713</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2">
+        <v>0.2623642644674911</v>
+      </c>
+      <c r="F2">
+        <v>6.522092798170152</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B3">
         <v>3.19</v>
@@ -931,10 +949,16 @@
       <c r="D3">
         <v>0.697</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>1.160020916796753</v>
+      </c>
+      <c r="F3">
+        <v>6.975413927455952</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4">
         <v>1.2</v>
@@ -945,10 +969,16 @@
       <c r="D4">
         <v>0.468</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4">
+        <v>0.1823215567939546</v>
+      </c>
+      <c r="F4">
+        <v>6.152732694704104</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>5.14</v>
@@ -959,10 +989,16 @@
       <c r="D5">
         <v>0.786</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>1.637053079467074</v>
+      </c>
+      <c r="F5">
+        <v>7.377758908227873</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B6">
         <v>4.38</v>
@@ -973,10 +1009,16 @@
       <c r="D6">
         <v>0.792</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6">
+        <v>1.477048724388355</v>
+      </c>
+      <c r="F6">
+        <v>7.52294091807237</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B7">
         <v>1.73</v>
@@ -987,10 +1029,16 @@
       <c r="D7">
         <v>0.721</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7">
+        <v>0.5481214085096876</v>
+      </c>
+      <c r="F7">
+        <v>6.880384082186005</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B8">
         <v>17.8</v>
@@ -1001,10 +1049,16 @@
       <c r="D8">
         <v>0.921</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8">
+        <v>2.87919845729804</v>
+      </c>
+      <c r="F8">
+        <v>8.677609912822142</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B9">
         <v>8.390000000000001</v>
@@ -1015,10 +1069,16 @@
       <c r="D9">
         <v>0.864</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9">
+        <v>2.127040520479115</v>
+      </c>
+      <c r="F9">
+        <v>8.299037181613066</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B10">
         <v>3.5</v>
@@ -1029,10 +1089,16 @@
       <c r="D10">
         <v>0.719</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10">
+        <v>1.252762968495368</v>
+      </c>
+      <c r="F10">
+        <v>7.251344983372214</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B11">
         <v>4.94</v>
@@ -1043,10 +1109,16 @@
       <c r="D11">
         <v>0.791</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E11">
+        <v>1.597365331199831</v>
+      </c>
+      <c r="F11">
+        <v>7.635303886259415</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B12">
         <v>25.9</v>
@@ -1057,10 +1129,16 @@
       <c r="D12">
         <v>0.8149999999999999</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="E12">
+        <v>3.254242968705492</v>
+      </c>
+      <c r="F12">
+        <v>9.323669057283185</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B13">
         <v>0.302</v>
@@ -1071,10 +1149,16 @@
       <c r="D13">
         <v>0.52</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="E13">
+        <v>-1.197328261607267</v>
+      </c>
+      <c r="F13">
+        <v>5.153291594497779</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B14">
         <v>4.94</v>
@@ -1085,10 +1169,16 @@
       <c r="D14">
         <v>0.775</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="E14">
+        <v>1.597365331199831</v>
+      </c>
+      <c r="F14">
+        <v>7.27931883541462</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>6.35</v>
@@ -1099,10 +1189,16 @@
       <c r="D15">
         <v>0.755</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15">
+        <v>1.8484548129046</v>
+      </c>
+      <c r="F15">
+        <v>7.979338895262328</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B16">
         <v>9.68</v>
@@ -1113,10 +1209,16 @@
       <c r="D16">
         <v>0.874</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="E16">
+        <v>2.270061901288486</v>
+      </c>
+      <c r="F16">
+        <v>8.582980931954241</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>1.6</v>
@@ -1127,10 +1229,16 @@
       <c r="D17">
         <v>0.699</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0.4700036292457356</v>
+      </c>
+      <c r="F17">
+        <v>6.391917113392602</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0.532</v>
@@ -1141,10 +1249,16 @@
       <c r="D18">
         <v>0.444</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>-0.6311117896404926</v>
+      </c>
+      <c r="F18">
+        <v>5.937536205082426</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B19">
         <v>0.571</v>
@@ -1152,10 +1266,16 @@
       <c r="C19">
         <v>355</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>-0.5603660693261269</v>
+      </c>
+      <c r="F19">
+        <v>5.872117789475416</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B20">
         <v>1.31</v>
@@ -1166,10 +1286,16 @@
       <c r="D20">
         <v>0.632</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="E20">
+        <v>0.2700271372130602</v>
+      </c>
+      <c r="F20">
+        <v>6.329720905522696</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B21">
         <v>4.68</v>
@@ -1180,10 +1306,16 @@
       <c r="D21">
         <v>0.71</v>
       </c>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="E21">
+        <v>1.543298109929555</v>
+      </c>
+      <c r="F21">
+        <v>7.251344983372214</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B22">
         <v>2.21</v>
@@ -1194,10 +1326,16 @@
       <c r="D22">
         <v>0.646</v>
       </c>
-    </row>
-    <row r="23" spans="1:4">
+      <c r="E22">
+        <v>0.7929925155296614</v>
+      </c>
+      <c r="F22">
+        <v>6.946975992135418</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B23">
         <v>1.9</v>
@@ -1208,10 +1346,16 @@
       <c r="D23">
         <v>0.704</v>
       </c>
-    </row>
-    <row r="24" spans="1:4">
+      <c r="E23">
+        <v>0.6418538861723947</v>
+      </c>
+      <c r="F23">
+        <v>7.114769448366463</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B24">
         <v>22.5</v>
@@ -1222,10 +1366,16 @@
       <c r="D24">
         <v>0.84</v>
       </c>
-    </row>
-    <row r="25" spans="1:4">
+      <c r="E24">
+        <v>3.113515309210374</v>
+      </c>
+      <c r="F24">
+        <v>9.060679597421776</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B25">
         <v>6.91</v>
@@ -1236,10 +1386,16 @@
       <c r="D25">
         <v>0.761</v>
       </c>
-    </row>
-    <row r="26" spans="1:4">
+      <c r="E25">
+        <v>1.932969637779579</v>
+      </c>
+      <c r="F25">
+        <v>7.889833751394296</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B26">
         <v>0.253</v>
@@ -1250,10 +1406,16 @@
       <c r="D26">
         <v>0.511</v>
       </c>
-    </row>
-    <row r="27" spans="1:4">
+      <c r="E26">
+        <v>-1.374365790254617</v>
+      </c>
+      <c r="F26">
+        <v>5.537334267018537</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0.317</v>
@@ -1264,10 +1426,16 @@
       <c r="D27">
         <v>0.466</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>-1.148853505104857</v>
+      </c>
+      <c r="F27">
+        <v>5.84354441703136</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B28">
         <v>16.8</v>
@@ -1278,10 +1446,16 @@
       <c r="D28">
         <v>0.897</v>
       </c>
-    </row>
-    <row r="29" spans="1:4">
+      <c r="E28">
+        <v>2.821378886409213</v>
+      </c>
+      <c r="F28">
+        <v>9.013108202446475</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B29">
         <v>1.04</v>
@@ -1292,10 +1466,16 @@
       <c r="D29">
         <v>0.615</v>
       </c>
-    </row>
-    <row r="30" spans="1:4">
+      <c r="E29">
+        <v>0.03922071315328133</v>
+      </c>
+      <c r="F29">
+        <v>5.356586274672012</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B30">
         <v>4.34</v>
@@ -1306,10 +1486,16 @@
       <c r="D30">
         <v>0.804</v>
       </c>
-    </row>
-    <row r="31" spans="1:4">
+      <c r="E30">
+        <v>1.467874348112314</v>
+      </c>
+      <c r="F30">
+        <v>7.528331766707247</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B31">
         <v>5.26</v>
@@ -1320,10 +1506,16 @@
       <c r="D31">
         <v>0.672</v>
       </c>
-    </row>
-    <row r="32" spans="1:4">
+      <c r="E31">
+        <v>1.660131026749619</v>
+      </c>
+      <c r="F31">
+        <v>7.396335293800808</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B32">
         <v>1.41</v>
@@ -1334,10 +1526,16 @@
       <c r="D32">
         <v>0.6830000000000001</v>
       </c>
-    </row>
-    <row r="33" spans="1:4">
+      <c r="E32">
+        <v>0.3435897043900769</v>
+      </c>
+      <c r="F32">
+        <v>6.45833828334479</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B33">
         <v>0.16</v>
@@ -1348,10 +1546,16 @@
       <c r="D33">
         <v>0.461</v>
       </c>
-    </row>
-    <row r="34" spans="1:4">
+      <c r="E33">
+        <v>-1.83258146374831</v>
+      </c>
+      <c r="F33">
+        <v>4.157319361383489</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B34">
         <v>0.0301</v>
@@ -1362,10 +1566,16 @@
       <c r="D34">
         <v>0.377</v>
       </c>
-    </row>
-    <row r="35" spans="1:4">
+      <c r="E34">
+        <v>-3.503230107227307</v>
+      </c>
+      <c r="F34">
+        <v>5.726847747587197</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0.305</v>
@@ -1376,10 +1586,16 @@
       <c r="D35">
         <v>0.527</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>-1.187443502374725</v>
+      </c>
+      <c r="F35">
+        <v>5.75890177387728</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B36">
         <v>1.86</v>
@@ -1390,10 +1606,16 @@
       <c r="D36">
         <v>0.74</v>
       </c>
-    </row>
-    <row r="37" spans="1:4">
+      <c r="E36">
+        <v>0.62057648772511</v>
+      </c>
+      <c r="F36">
+        <v>6.937314081223682</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0.355</v>
@@ -1404,10 +1626,16 @@
       <c r="D37">
         <v>0.423</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>-1.035637489506721</v>
+      </c>
+      <c r="F37">
+        <v>6.278521424165844</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B38">
         <v>5.46</v>
@@ -1418,10 +1646,16 @@
       <c r="D38">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="E38">
+        <v>1.697448789756814</v>
+      </c>
+      <c r="F38">
+        <v>7.727535110475448</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B39">
         <v>2.37</v>
@@ -1432,10 +1666,16 @@
       <c r="D39">
         <v>0.771</v>
       </c>
-    </row>
-    <row r="40" spans="1:4">
+      <c r="E39">
+        <v>0.8628899551470398</v>
+      </c>
+      <c r="F39">
+        <v>6.799055862058796</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B40">
         <v>7.7</v>
@@ -1446,10 +1686,16 @@
       <c r="D40">
         <v>0.844</v>
       </c>
-    </row>
-    <row r="41" spans="1:4">
+      <c r="E40">
+        <v>2.041220328859638</v>
+      </c>
+      <c r="F40">
+        <v>7.736307096548285</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B41">
         <v>11.9</v>
@@ -1460,10 +1706,16 @@
       <c r="D41">
         <v>0.856</v>
       </c>
-    </row>
-    <row r="42" spans="1:4">
+      <c r="E41">
+        <v>2.476538400117484</v>
+      </c>
+      <c r="F41">
+        <v>8.405143687607614</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B42">
         <v>9.19</v>
@@ -1474,10 +1726,16 @@
       <c r="D42">
         <v>0.906</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>2.218115936367596</v>
+      </c>
+      <c r="F42">
+        <v>8.194229304819817</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B43">
         <v>0.571</v>
@@ -1488,10 +1746,16 @@
       <c r="D43">
         <v>0.427</v>
       </c>
-    </row>
-    <row r="44" spans="1:4">
+      <c r="E43">
+        <v>-0.5603660693261269</v>
+      </c>
+      <c r="F43">
+        <v>5.176149732573829</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B44">
         <v>2.17</v>
@@ -1502,10 +1766,16 @@
       <c r="D44">
         <v>0.714</v>
       </c>
-    </row>
-    <row r="45" spans="1:4">
+      <c r="E44">
+        <v>0.7747271675523681</v>
+      </c>
+      <c r="F44">
+        <v>6.406879986069314</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>2.23</v>
@@ -1516,10 +1786,16 @@
       <c r="D45">
         <v>0.6919999999999999</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0.8020015854720274</v>
+      </c>
+      <c r="F45">
+        <v>6.641182169740591</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B46">
         <v>2.24</v>
@@ -1530,10 +1806,16 @@
       <c r="D46">
         <v>0.698</v>
       </c>
-    </row>
-    <row r="47" spans="1:4">
+      <c r="E46">
+        <v>0.8064758658669485</v>
+      </c>
+      <c r="F46">
+        <v>6.616065185132817</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B47">
         <v>2.38</v>
@@ -1544,10 +1826,16 @@
       <c r="D47">
         <v>0.651</v>
       </c>
-    </row>
-    <row r="48" spans="1:4">
+      <c r="E47">
+        <v>0.8671004876833833</v>
+      </c>
+      <c r="F47">
+        <v>6.774223886357614</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B48">
         <v>1.15</v>
@@ -1558,10 +1846,16 @@
       <c r="D48">
         <v>0.659</v>
       </c>
-    </row>
-    <row r="49" spans="1:4">
+      <c r="E48">
+        <v>0.1397619423751586</v>
+      </c>
+      <c r="F48">
+        <v>6.601230118728877</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>5.78</v>
@@ -1572,10 +1866,16 @@
       <c r="D49">
         <v>0.592</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>1.754403682684286</v>
+      </c>
+      <c r="F49">
+        <v>7.659171367666058</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B50">
         <v>0.14</v>
@@ -1586,10 +1886,16 @@
       <c r="D50">
         <v>0.406</v>
       </c>
-    </row>
-    <row r="51" spans="1:4">
+      <c r="E50">
+        <v>-1.966112856372833</v>
+      </c>
+      <c r="F50">
+        <v>5.153291594497779</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B51">
         <v>13.9</v>
@@ -1600,10 +1906,16 @@
       <c r="D51">
         <v>0.835</v>
       </c>
-    </row>
-    <row r="52" spans="1:4">
+      <c r="E51">
+        <v>2.631888840136646</v>
+      </c>
+      <c r="F51">
+        <v>8.352318548226004</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0.0742</v>
@@ -1614,10 +1926,16 @@
       <c r="D52">
         <v>0.378</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>-2.600991128808802</v>
+      </c>
+      <c r="F52">
+        <v>6.182084906716632</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B53">
         <v>1.39</v>
@@ -1628,10 +1946,16 @@
       <c r="D53">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="54" spans="1:4">
+      <c r="E53">
+        <v>0.3293037471426003</v>
+      </c>
+      <c r="F53">
+        <v>6.442540166468198</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B54">
         <v>12.1</v>
@@ -1642,10 +1966,16 @@
       <c r="D54">
         <v>0.876</v>
       </c>
-    </row>
-    <row r="55" spans="1:4">
+      <c r="E54">
+        <v>2.493205452602695</v>
+      </c>
+      <c r="F54">
+        <v>8.849370503754569</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B55">
         <v>5.96</v>
@@ -1656,10 +1986,16 @@
       <c r="D55">
         <v>0.877</v>
       </c>
-    </row>
-    <row r="56" spans="1:4">
+      <c r="E55">
+        <v>1.785070481077258</v>
+      </c>
+      <c r="F55">
+        <v>8.323608442343572</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B56">
         <v>2.77</v>
@@ -1670,10 +2006,16 @@
       <c r="D56">
         <v>0.651</v>
       </c>
-    </row>
-    <row r="57" spans="1:4">
+      <c r="E56">
+        <v>1.018847320199247</v>
+      </c>
+      <c r="F56">
+        <v>7.835974581721566</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B57">
         <v>0.229</v>
@@ -1684,10 +2026,16 @@
       <c r="D57">
         <v>0.426</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>-1.474033275427897</v>
+      </c>
+      <c r="F57">
+        <v>4.45898767581001</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B58">
         <v>1.46</v>
@@ -1698,10 +2046,16 @@
       <c r="D58">
         <v>0.735</v>
       </c>
-    </row>
-    <row r="59" spans="1:4">
+      <c r="E58">
+        <v>0.378436435720245</v>
+      </c>
+      <c r="F58">
+        <v>6.70808408385307</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B59">
         <v>9.6</v>
@@ -1712,10 +2066,16 @@
       <c r="D59">
         <v>0.903</v>
       </c>
-    </row>
-    <row r="60" spans="1:4">
+      <c r="E59">
+        <v>2.261763098473791</v>
+      </c>
+      <c r="F59">
+        <v>8.29154650988391</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B60">
         <v>0.433</v>
@@ -1726,10 +2086,16 @@
       <c r="D60">
         <v>0.53</v>
       </c>
-    </row>
-    <row r="61" spans="1:4">
+      <c r="E60">
+        <v>-0.8370175509796473</v>
+      </c>
+      <c r="F60">
+        <v>5.62040086571715</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B61">
         <v>8.630000000000001</v>
@@ -1740,10 +2106,16 @@
       <c r="D61">
         <v>0.853</v>
       </c>
-    </row>
-    <row r="62" spans="1:4">
+      <c r="E61">
+        <v>2.155244505095337</v>
+      </c>
+      <c r="F61">
+        <v>7.912056888179006</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>2.3</v>
@@ -1751,10 +2123,16 @@
       <c r="C62">
         <v>782</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0.8329091229351039</v>
+      </c>
+      <c r="F62">
+        <v>6.661854740545311</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B63">
         <v>0.922</v>
@@ -1765,10 +2143,16 @@
       <c r="D63">
         <v>0.589</v>
       </c>
-    </row>
-    <row r="64" spans="1:4">
+      <c r="E63">
+        <v>-0.08121005542554317</v>
+      </c>
+      <c r="F63">
+        <v>6.431331081933479</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B64">
         <v>0.16</v>
@@ -1779,10 +2163,16 @@
       <c r="D64">
         <v>0.398</v>
       </c>
-    </row>
-    <row r="65" spans="1:4">
+      <c r="E64">
+        <v>-1.83258146374831</v>
+      </c>
+      <c r="F64">
+        <v>4.185098925490565</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B65">
         <v>2.09</v>
@@ -1793,10 +2183,16 @@
       <c r="D65">
         <v>0.618</v>
       </c>
-    </row>
-    <row r="66" spans="1:4">
+      <c r="E65">
+        <v>0.7371640659767196</v>
+      </c>
+      <c r="F65">
+        <v>6.505784060128229</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B66">
         <v>0.25</v>
@@ -1807,10 +2203,16 @@
       <c r="D66">
         <v>0.462</v>
       </c>
-    </row>
-    <row r="67" spans="1:4">
+      <c r="E66">
+        <v>-1.386294361119891</v>
+      </c>
+      <c r="F66">
+        <v>5.953243334287785</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B67">
         <v>1.14</v>
@@ -1821,10 +2223,16 @@
       <c r="D67">
         <v>0.597</v>
       </c>
-    </row>
-    <row r="68" spans="1:4">
+      <c r="E67">
+        <v>0.131028262406404</v>
+      </c>
+      <c r="F67">
+        <v>6.410174881966167</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B68">
         <v>5.59</v>
@@ -1835,10 +2243,16 @@
       <c r="D68">
         <v>0.8120000000000001</v>
       </c>
-    </row>
-    <row r="69" spans="1:4">
+      <c r="E68">
+        <v>1.720979287167008</v>
+      </c>
+      <c r="F68">
+        <v>7.886081401775745</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B69">
         <v>7.57</v>
@@ -1849,10 +2263,16 @@
       <c r="D69">
         <v>0.892</v>
       </c>
-    </row>
-    <row r="70" spans="1:4">
+      <c r="E69">
+        <v>2.024193067449358</v>
+      </c>
+      <c r="F69">
+        <v>9.595602772766828</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>1.19</v>
@@ -1863,10 +2283,16 @@
       <c r="D70">
         <v>0.556</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0.173953307123438</v>
+      </c>
+      <c r="F70">
+        <v>6.18826412308259</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B71">
         <v>1.61</v>
@@ -1877,10 +2303,16 @@
       <c r="D71">
         <v>0.641</v>
       </c>
-    </row>
-    <row r="72" spans="1:4">
+      <c r="E71">
+        <v>0.4762341789963717</v>
+      </c>
+      <c r="F71">
+        <v>6.666956792429207</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B72">
         <v>7.21</v>
@@ -1891,10 +2323,16 @@
       <c r="D72">
         <v>0.716</v>
       </c>
-    </row>
-    <row r="73" spans="1:4">
+      <c r="E72">
+        <v>1.975468951296858</v>
+      </c>
+      <c r="F72">
+        <v>7.882314918980268</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B73">
         <v>2.19</v>
@@ -1905,10 +2343,16 @@
       <c r="D73">
         <v>0.638</v>
       </c>
-    </row>
-    <row r="74" spans="1:4">
+      <c r="E73">
+        <v>0.7839015438284094</v>
+      </c>
+      <c r="F73">
+        <v>6.795705775173514</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B74">
         <v>10.1</v>
@@ -1919,10 +2363,16 @@
       <c r="D74">
         <v>0.908</v>
       </c>
-    </row>
-    <row r="75" spans="1:4">
+      <c r="E74">
+        <v>2.312535423847214</v>
+      </c>
+      <c r="F74">
+        <v>8.137395830056651</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B75">
         <v>9.109999999999999</v>
@@ -1933,10 +2383,16 @@
       <c r="D75">
         <v>0.877</v>
       </c>
-    </row>
-    <row r="76" spans="1:4">
+      <c r="E75">
+        <v>2.209372711271867</v>
+      </c>
+      <c r="F75">
+        <v>7.972466015974566</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B76">
         <v>7.8</v>
@@ -1947,10 +2403,16 @@
       <c r="D76">
         <v>0.866</v>
       </c>
-    </row>
-    <row r="77" spans="1:4">
+      <c r="E76">
+        <v>2.054123733695546</v>
+      </c>
+      <c r="F76">
+        <v>8.055157731819678</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B77">
         <v>3.48</v>
@@ -1961,10 +2423,16 @@
       <c r="D77">
         <v>0.718</v>
       </c>
-    </row>
-    <row r="78" spans="1:4">
+      <c r="E77">
+        <v>1.247032293786383</v>
+      </c>
+      <c r="F77">
+        <v>7.31986492980897</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B78">
         <v>9.74</v>
@@ -1975,10 +2443,16 @@
       <c r="D78">
         <v>0.88</v>
       </c>
-    </row>
-    <row r="79" spans="1:4">
+      <c r="E78">
+        <v>2.276241117654444</v>
+      </c>
+      <c r="F78">
+        <v>8.296546520300614</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B79">
         <v>3.56</v>
@@ -1989,10 +2463,16 @@
       <c r="D79">
         <v>0.739</v>
       </c>
-    </row>
-    <row r="80" spans="1:4">
+      <c r="E79">
+        <v>1.269760544863939</v>
+      </c>
+      <c r="F79">
+        <v>7.05617528410041</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B80">
         <v>14</v>
@@ -2003,10 +2483,16 @@
       <c r="D80">
         <v>0.758</v>
       </c>
-    </row>
-    <row r="81" spans="1:4">
+      <c r="E80">
+        <v>2.639057329615258</v>
+      </c>
+      <c r="F80">
+        <v>8.359369106222671</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B81">
         <v>0.258</v>
@@ -2017,10 +2503,16 @@
       <c r="D81">
         <v>0.506</v>
       </c>
-    </row>
-    <row r="82" spans="1:4">
+      <c r="E81">
+        <v>-1.35479569406052</v>
+      </c>
+      <c r="F81">
+        <v>6.104793232414985</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B82">
         <v>0.533</v>
@@ -2031,10 +2523,16 @@
       <c r="D82">
         <v>0.572</v>
       </c>
-    </row>
-    <row r="83" spans="1:4">
+      <c r="E82">
+        <v>-0.6292338548162925</v>
+      </c>
+      <c r="F82">
+        <v>4.736198448394496</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B83">
         <v>30.1</v>
@@ -2045,10 +2543,16 @@
       <c r="D83">
         <v>0.787</v>
       </c>
-    </row>
-    <row r="84" spans="1:4">
+      <c r="E83">
+        <v>3.40452517175483</v>
+      </c>
+      <c r="F83">
+        <v>9.259130536145614</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>1.28</v>
@@ -2059,10 +2563,16 @@
       <c r="D84">
         <v>0.624</v>
       </c>
-    </row>
-    <row r="85" spans="1:4">
+      <c r="E84">
+        <v>0.2468600779315258</v>
+      </c>
+      <c r="F84">
+        <v>6.329720905522696</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B85">
         <v>3.78</v>
@@ -2073,10 +2583,16 @@
       <c r="D85">
         <v>0.819</v>
       </c>
-    </row>
-    <row r="86" spans="1:4">
+      <c r="E85">
+        <v>1.329724009631496</v>
+      </c>
+      <c r="F85">
+        <v>7.687080155783135</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B86">
         <v>3.29</v>
@@ -2087,10 +2603,16 @@
       <c r="D86">
         <v>0.74</v>
       </c>
-    </row>
-    <row r="87" spans="1:4">
+      <c r="E86">
+        <v>1.190887564777281</v>
+      </c>
+      <c r="F86">
+        <v>6.937314081223682</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B87">
         <v>1.05</v>
@@ -2101,10 +2623,16 @@
       <c r="D87">
         <v>0.447</v>
       </c>
-    </row>
-    <row r="88" spans="1:4">
+      <c r="E87">
+        <v>0.04879016416943204</v>
+      </c>
+      <c r="F87">
+        <v>2.259677591982769</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B88">
         <v>8.369999999999999</v>
@@ -2115,10 +2643,16 @@
       <c r="D88">
         <v>0.757</v>
       </c>
-    </row>
-    <row r="89" spans="1:4">
+      <c r="E88">
+        <v>2.124653884501384</v>
+      </c>
+      <c r="F88">
+        <v>7.937374696163295</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B89">
         <v>4.65</v>
@@ -2129,10 +2663,16 @@
       <c r="D89">
         <v>0.82</v>
       </c>
-    </row>
-    <row r="90" spans="1:4">
+      <c r="E89">
+        <v>1.536867219599265</v>
+      </c>
+      <c r="F89">
+        <v>7.982757702011113</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B90">
         <v>23.2</v>
@@ -2143,10 +2683,16 @@
       <c r="D90">
         <v>0.887</v>
       </c>
-    </row>
-    <row r="91" spans="1:4">
+      <c r="E90">
+        <v>3.144152278672264</v>
+      </c>
+      <c r="F90">
+        <v>9.079092085366229</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B91">
         <v>4.6</v>
@@ -2157,10 +2703,16 @@
       <c r="D91">
         <v>0.714</v>
       </c>
-    </row>
-    <row r="92" spans="1:4">
+      <c r="E91">
+        <v>1.526056303495049</v>
+      </c>
+      <c r="F91">
+        <v>7.286191714702382</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B92">
         <v>6.94</v>
@@ -2171,10 +2723,16 @@
       <c r="D92">
         <v>0.747</v>
       </c>
-    </row>
-    <row r="93" spans="1:4">
+      <c r="E92">
+        <v>1.937301774518713</v>
+      </c>
+      <c r="F92">
+        <v>7.908387159290043</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B93">
         <v>2.32</v>
@@ -2185,10 +2743,16 @@
       <c r="D93">
         <v>0.641</v>
       </c>
-    </row>
-    <row r="94" spans="1:4">
+      <c r="E93">
+        <v>0.8415671856782185</v>
+      </c>
+      <c r="F93">
+        <v>6.791221462726186</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B94">
         <v>6.64</v>
@@ -2199,10 +2763,16 @@
       <c r="D94">
         <v>0.8129999999999999</v>
       </c>
-    </row>
-    <row r="95" spans="1:4">
+      <c r="E94">
+        <v>1.893111963488342</v>
+      </c>
+      <c r="F94">
+        <v>7.67786350067821</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B95">
         <v>2.99</v>
@@ -2213,10 +2783,16 @@
       <c r="D95">
         <v>0.728</v>
       </c>
-    </row>
-    <row r="96" spans="1:4">
+      <c r="E95">
+        <v>1.095273387402595</v>
+      </c>
+      <c r="F95">
+        <v>6.917705609835305</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>4.3</v>
@@ -2227,10 +2803,16 @@
       <c r="D96">
         <v>0.735</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>1.458615022699517</v>
+      </c>
+      <c r="F96">
+        <v>7.39018142822643</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>1.13</v>
@@ -2241,10 +2823,16 @@
       <c r="D97">
         <v>0.661</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0.1222176327242491</v>
+      </c>
+      <c r="F97">
+        <v>6.844815479208263</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B98">
         <v>4.66</v>
@@ -2255,10 +2843,16 @@
       <c r="D98">
         <v>0.673</v>
       </c>
-    </row>
-    <row r="99" spans="1:4">
+      <c r="E98">
+        <v>1.539015448137555</v>
+      </c>
+      <c r="F98">
+        <v>7.22983877815125</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>3.63</v>
@@ -2269,10 +2863,16 @@
       <c r="D99">
         <v>0.774</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>1.289232648276759</v>
+      </c>
+      <c r="F99">
+        <v>7.565275281898932</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>1.61</v>
@@ -2283,10 +2883,16 @@
       <c r="D100">
         <v>0.589</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0.4762341789963717</v>
+      </c>
+      <c r="F100">
+        <v>6.212606095751519</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B101">
         <v>0.102</v>
@@ -2297,10 +2903,16 @@
       <c r="D101">
         <v>0.372</v>
       </c>
-    </row>
-    <row r="102" spans="1:4">
+      <c r="E101">
+        <v>-2.282782465697866</v>
+      </c>
+      <c r="F101">
+        <v>6.018593214496234</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B102">
         <v>0.262</v>
@@ -2311,10 +2923,16 @@
       <c r="D102">
         <v>0.493</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>-1.33941077522104</v>
+      </c>
+      <c r="F102">
+        <v>5.765191102784844</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>1.14</v>
@@ -2325,10 +2943,16 @@
       <c r="D103">
         <v>0.589</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0.131028262406404</v>
+      </c>
+      <c r="F103">
+        <v>6.48768401848461</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B104">
         <v>0.0997</v>
@@ -2339,10 +2963,16 @@
       <c r="D104">
         <v>0.492</v>
       </c>
-    </row>
-    <row r="105" spans="1:4">
+      <c r="E104">
+        <v>-2.305589602014344</v>
+      </c>
+      <c r="F104">
+        <v>5.872117789475416</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6">
       <c r="A105" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B105">
         <v>10.7</v>
@@ -2353,10 +2983,16 @@
       <c r="D105">
         <v>0.905</v>
       </c>
-    </row>
-    <row r="106" spans="1:4">
+      <c r="E105">
+        <v>2.37024374146786</v>
+      </c>
+      <c r="F105">
+        <v>8.499029220788566</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6">
       <c r="A106" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B106">
         <v>7.95</v>
@@ -2367,10 +3003,16 @@
       <c r="D106">
         <v>0.894</v>
       </c>
-    </row>
-    <row r="107" spans="1:4">
+      <c r="E106">
+        <v>2.073171928666241</v>
+      </c>
+      <c r="F106">
+        <v>8.306472160100585</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6">
       <c r="A107" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B107">
         <v>0.834</v>
@@ -2381,10 +3023,16 @@
       <c r="D107">
         <v>0.607</v>
       </c>
-    </row>
-    <row r="108" spans="1:4">
+      <c r="E107">
+        <v>-0.1815218766233903</v>
+      </c>
+      <c r="F107">
+        <v>6.257667587882639</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6">
       <c r="A108" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B108">
         <v>0.0493</v>
@@ -2395,10 +3043,16 @@
       <c r="D108">
         <v>0.298</v>
       </c>
-    </row>
-    <row r="109" spans="1:4">
+      <c r="E108">
+        <v>-3.009831197933493</v>
+      </c>
+      <c r="F108">
+        <v>4.844187086458591</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6">
       <c r="A109" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B109">
         <v>0.649</v>
@@ -2409,10 +3063,16 @@
       <c r="D109">
         <v>0.481</v>
       </c>
-    </row>
-    <row r="110" spans="1:4">
+      <c r="E109">
+        <v>-0.4323225622780471</v>
+      </c>
+      <c r="F109">
+        <v>6.621405651764134</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6">
       <c r="A110" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B110">
         <v>9.550000000000001</v>
@@ -2423,10 +3083,16 @@
       <c r="D110">
         <v>0.9360000000000001</v>
       </c>
-    </row>
-    <row r="111" spans="1:4">
+      <c r="E110">
+        <v>2.256541154492639</v>
+      </c>
+      <c r="F110">
+        <v>8.675904882571059</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6">
       <c r="A111" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B111">
         <v>16.4</v>
@@ -2437,10 +3103,16 @@
       <c r="D111">
         <v>0.765</v>
       </c>
-    </row>
-    <row r="112" spans="1:4">
+      <c r="E111">
+        <v>2.797281334830153</v>
+      </c>
+      <c r="F111">
+        <v>8.8023721336499</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6">
       <c r="A112" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B112">
         <v>0.991</v>
@@ -2451,10 +3123,16 @@
       <c r="D112">
         <v>0.513</v>
       </c>
-    </row>
-    <row r="113" spans="1:4">
+      <c r="E112">
+        <v>-0.009040744652149071</v>
+      </c>
+      <c r="F112">
+        <v>6.261491684321042</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6">
       <c r="A113" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B113">
         <v>12.9</v>
@@ -2462,10 +3140,13 @@
       <c r="D113">
         <v>0.767</v>
       </c>
-    </row>
-    <row r="114" spans="1:4">
+      <c r="E113">
+        <v>2.557227311367626</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6">
       <c r="A114" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B114">
         <v>2.08</v>
@@ -2476,10 +3157,16 @@
       <c r="D114">
         <v>0.75</v>
       </c>
-    </row>
-    <row r="115" spans="1:4">
+      <c r="E114">
+        <v>0.7323678937132266</v>
+      </c>
+      <c r="F114">
+        <v>6.782192056006791</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6">
       <c r="A115" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B115">
         <v>0.6929999999999999</v>
@@ -2490,10 +3177,16 @@
       <c r="D115">
         <v>0.654</v>
       </c>
-    </row>
-    <row r="116" spans="1:4">
+      <c r="E115">
+        <v>-0.3667252797922339</v>
+      </c>
+      <c r="F115">
+        <v>6.563855526532127</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6">
       <c r="A116" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B116">
         <v>1.52</v>
@@ -2504,10 +3197,16 @@
       <c r="D116">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="117" spans="1:4">
+      <c r="E116">
+        <v>0.418710334858185</v>
+      </c>
+      <c r="F116">
+        <v>6.228511003591183</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6">
       <c r="A117" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B117">
         <v>0.8080000000000001</v>
@@ -2518,10 +3217,16 @@
       <c r="D117">
         <v>0.655</v>
       </c>
-    </row>
-    <row r="118" spans="1:4">
+      <c r="E117">
+        <v>-0.2131932204610416</v>
+      </c>
+      <c r="F117">
+        <v>6.07073772800249</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6">
       <c r="A118" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B118">
         <v>8.199999999999999</v>
@@ -2532,10 +3237,16 @@
       <c r="D118">
         <v>0.8129999999999999</v>
       </c>
-    </row>
-    <row r="119" spans="1:4">
+      <c r="E118">
+        <v>2.104134154270207</v>
+      </c>
+      <c r="F118">
+        <v>7.835974581721566</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6">
       <c r="A119" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B119">
         <v>5.66</v>
@@ -2546,10 +3257,16 @@
       <c r="D119">
         <v>0.804</v>
       </c>
-    </row>
-    <row r="120" spans="1:4">
+      <c r="E119">
+        <v>1.733423892215092</v>
+      </c>
+      <c r="F119">
+        <v>7.783224016336037</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6">
       <c r="A120" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B120">
         <v>53.2</v>
@@ -2560,10 +3277,16 @@
       <c r="D120">
         <v>0.825</v>
       </c>
-    </row>
-    <row r="121" spans="1:4">
+      <c r="E120">
+        <v>3.974058396347599</v>
+      </c>
+      <c r="F120">
+        <v>9.830916859701293</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6">
       <c r="A121" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B121">
         <v>4.86</v>
@@ -2574,10 +3297,16 @@
       <c r="D121">
         <v>0.78</v>
       </c>
-    </row>
-    <row r="122" spans="1:4">
+      <c r="E121">
+        <v>1.581038437912403</v>
+      </c>
+      <c r="F121">
+        <v>7.549609165154532</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6">
       <c r="A122" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B122">
         <v>11.6</v>
@@ -2588,10 +3317,16 @@
       <c r="D122">
         <v>0.769</v>
       </c>
-    </row>
-    <row r="123" spans="1:4">
+      <c r="E122">
+        <v>2.451005098112319</v>
+      </c>
+      <c r="F122">
+        <v>8.457443187010464</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6">
       <c r="A123" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B123">
         <v>0.945</v>
@@ -2602,10 +3337,16 @@
       <c r="D123">
         <v>0.6879999999999999</v>
       </c>
-    </row>
-    <row r="124" spans="1:4">
+      <c r="E123">
+        <v>-0.05657035148839435</v>
+      </c>
+      <c r="F123">
+        <v>5.762051382780177</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6">
       <c r="A124" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B124">
         <v>0.517</v>
@@ -2616,10 +3357,16 @@
       <c r="D124">
         <v>0.531</v>
       </c>
-    </row>
-    <row r="125" spans="1:4">
+      <c r="E124">
+        <v>-0.6597124044737079</v>
+      </c>
+      <c r="F124">
+        <v>5.598421958998375</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6">
       <c r="A125" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B125">
         <v>15.4</v>
@@ -2630,10 +3377,16 @@
       <c r="D125">
         <v>0.779</v>
       </c>
-    </row>
-    <row r="126" spans="1:4">
+      <c r="E125">
+        <v>2.734367509419584</v>
+      </c>
+      <c r="F125">
+        <v>8.623353387244627</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6">
       <c r="A126" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B126">
         <v>0.436</v>
@@ -2644,10 +3397,16 @@
       <c r="D126">
         <v>0.435</v>
       </c>
-    </row>
-    <row r="127" spans="1:4">
+      <c r="E126">
+        <v>-0.8301130356331028</v>
+      </c>
+      <c r="F126">
+        <v>5.53338948872752</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6">
       <c r="A127" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B127">
         <v>5.74</v>
@@ -2658,10 +3417,16 @@
       <c r="D127">
         <v>0.749</v>
       </c>
-    </row>
-    <row r="128" spans="1:4">
+      <c r="E127">
+        <v>1.747459210331475</v>
+      </c>
+      <c r="F127">
+        <v>7.718685495198466</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6">
       <c r="A128" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B128">
         <v>7.11</v>
@@ -2672,10 +3437,16 @@
       <c r="D128">
         <v>0.739</v>
       </c>
-    </row>
-    <row r="129" spans="1:4">
+      <c r="E128">
+        <v>1.961502243815149</v>
+      </c>
+      <c r="F128">
+        <v>7.787382026484701</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6">
       <c r="A129" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B129">
         <v>4.21</v>
@@ -2686,10 +3457,16 @@
       <c r="D129">
         <v>0.88</v>
       </c>
-    </row>
-    <row r="130" spans="1:4">
+      <c r="E129">
+        <v>1.43746264769429</v>
+      </c>
+      <c r="F129">
+        <v>8.451053388911692</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6">
       <c r="A130" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B130">
         <v>6.81</v>
@@ -2700,10 +3477,16 @@
       <c r="D130">
         <v>0.8129999999999999</v>
       </c>
-    </row>
-    <row r="131" spans="1:4">
+      <c r="E130">
+        <v>1.918392120161421</v>
+      </c>
+      <c r="F130">
+        <v>8.107720061910534</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6">
       <c r="A131" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B131">
         <v>8.07</v>
@@ -2714,10 +3497,16 @@
       <c r="D131">
         <v>0.869</v>
       </c>
-    </row>
-    <row r="132" spans="1:4">
+      <c r="E131">
+        <v>2.088153482281857</v>
+      </c>
+      <c r="F131">
+        <v>8.196987927258897</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6">
       <c r="A132" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B132">
         <v>0.365</v>
@@ -2728,10 +3517,16 @@
       <c r="D132">
         <v>0.489</v>
       </c>
-    </row>
-    <row r="133" spans="1:4">
+      <c r="E132">
+        <v>-1.007857925399646</v>
+      </c>
+      <c r="F132">
+        <v>4.867534450455582</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6">
       <c r="A133" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B133">
         <v>9.35</v>
@@ -2742,10 +3537,16 @@
       <c r="D133">
         <v>0.616</v>
       </c>
-    </row>
-    <row r="134" spans="1:4">
+      <c r="E133">
+        <v>2.235376343300596</v>
+      </c>
+      <c r="F133">
+        <v>7.912056888179006</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6">
       <c r="A134" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B134">
         <v>10.1</v>
@@ -2756,15 +3557,21 @@
       <c r="D134">
         <v>0.873</v>
       </c>
-    </row>
-    <row r="135" spans="1:4">
+      <c r="E134">
+        <v>2.312535423847214</v>
+      </c>
+      <c r="F134">
+        <v>8.425077902508432</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6">
       <c r="A135" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6">
       <c r="A136" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B136">
         <v>7.89</v>
@@ -2775,10 +3582,16 @@
       <c r="D136">
         <v>0.854</v>
       </c>
-    </row>
-    <row r="137" spans="1:4">
+      <c r="E136">
+        <v>2.065596134857783</v>
+      </c>
+      <c r="F136">
+        <v>8.064636475774222</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6">
       <c r="A137" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B137">
         <v>0.624</v>
@@ -2789,10 +3602,16 @@
       <c r="D137">
         <v>0.731</v>
       </c>
-    </row>
-    <row r="138" spans="1:4">
+      <c r="E137">
+        <v>-0.4716049106127094</v>
+      </c>
+      <c r="F137">
+        <v>6.146329257668897</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6">
       <c r="A138" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B138">
         <v>4.35</v>
@@ -2800,10 +3619,16 @@
       <c r="C138">
         <v>1670</v>
       </c>
-    </row>
-    <row r="139" spans="1:4">
+      <c r="E138">
+        <v>1.470175845100593</v>
+      </c>
+      <c r="F138">
+        <v>7.4205789054108</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6">
       <c r="A139" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B139">
         <v>2.3</v>
@@ -2814,10 +3639,16 @@
       <c r="D139">
         <v>0.71</v>
       </c>
-    </row>
-    <row r="140" spans="1:4">
+      <c r="E139">
+        <v>0.8329091229351039</v>
+      </c>
+      <c r="F139">
+        <v>6.639875833826536</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6">
       <c r="A140" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B140">
         <v>2.08</v>
@@ -2828,10 +3659,16 @@
       <c r="D140">
         <v>0.704</v>
       </c>
-    </row>
-    <row r="141" spans="1:4">
+      <c r="E140">
+        <v>0.7323678937132266</v>
+      </c>
+      <c r="F140">
+        <v>6.464588303689961</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6">
       <c r="A141" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B141">
         <v>0.438</v>
@@ -2842,10 +3679,16 @@
       <c r="D141">
         <v>0.444</v>
       </c>
-    </row>
-    <row r="142" spans="1:4">
+      <c r="E141">
+        <v>-0.8255363686056909</v>
+      </c>
+      <c r="F141">
+        <v>5.902633333401366</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6">
       <c r="A142" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B142">
         <v>3.46</v>
@@ -2856,10 +3699,16 @@
       <c r="D142">
         <v>0.6909999999999999</v>
       </c>
-    </row>
-    <row r="143" spans="1:4">
+      <c r="E142">
+        <v>1.241268589069633</v>
+      </c>
+      <c r="F142">
+        <v>7.02108396428914</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6">
       <c r="A143" s="1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B143">
         <v>0.9340000000000001</v>
@@ -2870,10 +3719,16 @@
       <c r="D143">
         <v>0.514</v>
       </c>
-    </row>
-    <row r="144" spans="1:4">
+      <c r="E143">
+        <v>-0.06827884075329438</v>
+      </c>
+      <c r="F143">
+        <v>5.918893854273146</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6">
       <c r="A144" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B144">
         <v>5.24</v>
@@ -2884,10 +3739,16 @@
       <c r="D144">
         <v>0.897</v>
       </c>
-    </row>
-    <row r="145" spans="1:4">
+      <c r="E144">
+        <v>1.656321498332951</v>
+      </c>
+      <c r="F144">
+        <v>8.607033895416027</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6">
       <c r="A145" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B145">
         <v>5.02</v>
@@ -2898,10 +3759,16 @@
       <c r="D145">
         <v>0.914</v>
       </c>
-    </row>
-    <row r="146" spans="1:4">
+      <c r="E145">
+        <v>1.613429933703638</v>
+      </c>
+      <c r="F145">
+        <v>8.134467570277563</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6">
       <c r="A146" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B146">
         <v>3.39</v>
@@ -2912,10 +3779,16 @@
       <c r="D146">
         <v>0.651</v>
       </c>
-    </row>
-    <row r="147" spans="1:4">
+      <c r="E146">
+        <v>1.220829921392359</v>
+      </c>
+      <c r="F146">
+        <v>7.047517221357296</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6">
       <c r="A147" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B147">
         <v>0.452</v>
@@ -2926,10 +3799,16 @@
       <c r="D147">
         <v>0.592</v>
       </c>
-    </row>
-    <row r="148" spans="1:4">
+      <c r="E147">
+        <v>-0.7940730991499059</v>
+      </c>
+      <c r="F147">
+        <v>5.888877958332881</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6">
       <c r="A148" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B148">
         <v>0.141</v>
@@ -2940,10 +3819,16 @@
       <c r="D148">
         <v>0.468</v>
       </c>
-    </row>
-    <row r="149" spans="1:4">
+      <c r="E148">
+        <v>-1.958995388603969</v>
+      </c>
+      <c r="F148">
+        <v>6.089044875446846</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6">
       <c r="A149" s="1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B149">
         <v>3.81</v>
@@ -2954,10 +3839,16 @@
       <c r="D149">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="150" spans="1:4">
+      <c r="E149">
+        <v>1.33762918913861</v>
+      </c>
+      <c r="F149">
+        <v>7.371489295214277</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6">
       <c r="A150" s="1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B150">
         <v>0.172</v>
@@ -2968,10 +3859,16 @@
       <c r="D150">
         <v>0.5659999999999999</v>
       </c>
-    </row>
-    <row r="151" spans="1:4">
+      <c r="E150">
+        <v>-1.760260802168684</v>
+      </c>
+      <c r="F150">
+        <v>4.048300623720694</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6">
       <c r="A151" s="1" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B151">
         <v>0.235</v>
@@ -2982,10 +3879,16 @@
       <c r="D151">
         <v>0.441</v>
       </c>
-    </row>
-    <row r="152" spans="1:4">
+      <c r="E151">
+        <v>-1.448169764837978</v>
+      </c>
+      <c r="F151">
+        <v>6.016157159698354</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6">
       <c r="A152" s="1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B152">
         <v>1.11</v>
@@ -2996,10 +3899,16 @@
       <c r="D152">
         <v>0.698</v>
       </c>
-    </row>
-    <row r="153" spans="1:4">
+      <c r="E152">
+        <v>0.1043600153242429</v>
+      </c>
+      <c r="F152">
+        <v>6.340359303727752</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6">
       <c r="A153" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B153">
         <v>34.7</v>
@@ -3010,10 +3919,16 @@
       <c r="D153">
         <v>0.767</v>
       </c>
-    </row>
-    <row r="154" spans="1:4">
+      <c r="E153">
+        <v>3.546739686952813</v>
+      </c>
+      <c r="F153">
+        <v>9.588776807696428</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6">
       <c r="A154" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B154">
         <v>2.34</v>
@@ -3024,10 +3939,16 @@
       <c r="D154">
         <v>0.701</v>
       </c>
-    </row>
-    <row r="155" spans="1:4">
+      <c r="E154">
+        <v>0.85015092936961</v>
+      </c>
+      <c r="F154">
+        <v>6.777646593635117</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6">
       <c r="A155" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B155">
         <v>4.09</v>
@@ -3038,10 +3959,16 @@
       <c r="D155">
         <v>0.705</v>
       </c>
-    </row>
-    <row r="156" spans="1:4">
+      <c r="E155">
+        <v>1.40854497005471</v>
+      </c>
+      <c r="F155">
+        <v>7.272398392570047</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6">
       <c r="A156" s="1" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B156">
         <v>11.5</v>
@@ -3049,10 +3976,16 @@
       <c r="C156">
         <v>4590</v>
       </c>
-    </row>
-    <row r="157" spans="1:4">
+      <c r="E156">
+        <v>2.442347035369204</v>
+      </c>
+      <c r="F156">
+        <v>8.431635303054591</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6">
       <c r="A157" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B157">
         <v>6.93</v>
@@ -3063,10 +3996,16 @@
       <c r="D157">
         <v>0.73</v>
       </c>
-    </row>
-    <row r="158" spans="1:4">
+      <c r="E157">
+        <v>1.935859813201812</v>
+      </c>
+      <c r="F157">
+        <v>8.006367567650246</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6">
       <c r="A158" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B158">
         <v>22.4</v>
@@ -3077,10 +4016,16 @@
       <c r="D158">
         <v>0.829</v>
       </c>
-    </row>
-    <row r="159" spans="1:4">
+      <c r="E158">
+        <v>3.109060958860994</v>
+      </c>
+      <c r="F158">
+        <v>9.02401079378469</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6">
       <c r="A159" s="1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B159">
         <v>8.6</v>
@@ -3091,10 +4036,16 @@
       <c r="D159">
         <v>0.892</v>
       </c>
-    </row>
-    <row r="160" spans="1:4">
+      <c r="E159">
+        <v>2.151762203259462</v>
+      </c>
+      <c r="F159">
+        <v>8.143226750367445</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6">
       <c r="A160" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B160">
         <v>19.3</v>
@@ -3105,10 +4056,16 @@
       <c r="D160">
         <v>0.905</v>
       </c>
-    </row>
-    <row r="161" spans="1:4">
+      <c r="E160">
+        <v>2.96010509591084</v>
+      </c>
+      <c r="F160">
+        <v>8.956737613177264</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6">
       <c r="A161" s="1" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B161">
         <v>1.8</v>
@@ -3119,10 +4076,16 @@
       <c r="D161">
         <v>0.77</v>
       </c>
-    </row>
-    <row r="162" spans="1:4">
+      <c r="E161">
+        <v>0.5877866649021191</v>
+      </c>
+      <c r="F161">
+        <v>6.854354502255021</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6">
       <c r="A162" s="1" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B162">
         <v>4.4</v>
@@ -3133,10 +4096,16 @@
       <c r="D162">
         <v>0.644</v>
       </c>
-    </row>
-    <row r="163" spans="1:4">
+      <c r="E162">
+        <v>1.481604540924216</v>
+      </c>
+      <c r="F162">
+        <v>7.484368643286131</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6">
       <c r="A163" s="1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B163">
         <v>0.45</v>
@@ -3147,10 +4116,16 @@
       <c r="D163">
         <v>0.582</v>
       </c>
-    </row>
-    <row r="164" spans="1:4">
+      <c r="E163">
+        <v>-0.7985076962177716</v>
+      </c>
+      <c r="F163">
+        <v>5.068904202220232</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6">
       <c r="A164" s="1" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B164">
         <v>5.81</v>
@@ -3161,10 +4136,16 @@
       <c r="D164">
         <v>0.745</v>
       </c>
-    </row>
-    <row r="165" spans="1:4">
+      <c r="E164">
+        <v>1.75958057086382</v>
+      </c>
+      <c r="F164">
+        <v>7.649692623711514</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6">
       <c r="A165" s="1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B165">
         <v>1.22</v>
@@ -3175,10 +4156,16 @@
       <c r="D165">
         <v>0.633</v>
       </c>
-    </row>
-    <row r="166" spans="1:4">
+      <c r="E165">
+        <v>0.1988508587451652</v>
+      </c>
+      <c r="F165">
+        <v>6.272877006546167</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6">
       <c r="A166" s="1" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B166">
         <v>0.964</v>
@@ -3189,10 +4176,16 @@
       <c r="D166">
         <v>0.48</v>
       </c>
-    </row>
-    <row r="167" spans="1:4">
+      <c r="E166">
+        <v>-0.03666398437159147</v>
+      </c>
+      <c r="F166">
+        <v>5.75890177387728</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6">
       <c r="A167" s="1" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B167">
         <v>0.152</v>
@@ -3203,10 +4196,16 @@
       <c r="D167">
         <v>0.504</v>
       </c>
-    </row>
-    <row r="168" spans="1:4">
+      <c r="E167">
+        <v>-1.883874758135861</v>
+      </c>
+      <c r="F167">
+        <v>6.378426183651587</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6">
       <c r="A168" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B168">
         <v>0.742</v>
@@ -3216,6 +4215,12 @@
       </c>
       <c r="D168">
         <v>0.421</v>
+      </c>
+      <c r="E168">
+        <v>-0.2984060358147566</v>
+      </c>
+      <c r="F168">
+        <v>6.584791392385716</v>
       </c>
     </row>
   </sheetData>
